--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2457212.549733582</v>
+        <v>2452583.420813673</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847139</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8175417.926310362</v>
+        <v>8173058.008748687</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>316.7120267361722</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956577</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>44.00931264611602</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.86702424530502</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9649643501934</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>305.771608835543</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779225</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899962</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>28.64614108861738</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>103.6065260110107</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05474244684455243</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
@@ -1430,13 +1430,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507228</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484066</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>128.1813886246141</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875532</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135895</v>
       </c>
       <c r="I20" t="n">
         <v>6.593776422875436</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003579</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281737</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415739</v>
+        <v>265.5568836689349</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806959</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.139122731397</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029519</v>
+        <v>293.0012941303128</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752492</v>
+        <v>204.8123861026102</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453483</v>
+        <v>20.92391191189573</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443495</v>
+        <v>48.81858568179585</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622525</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158224</v>
+        <v>137.1653684431833</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495918</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274704</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623488</v>
+        <v>269.5282451897097</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346799</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046327</v>
+        <v>67.32610467782418</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074568</v>
+        <v>52.47323292810658</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258541</v>
+        <v>38.04694813994631</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546452</v>
+        <v>37.97339019282542</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523179</v>
+        <v>39.72284161259269</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762392</v>
+        <v>50.54167953498482</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419596</v>
+        <v>37.89393170155687</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536789</v>
+        <v>15.7336472827288</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982381</v>
+        <v>6.632145647184714</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535113</v>
+        <v>84.75808915271203</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595232</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865931</v>
+        <v>166.554570013954</v>
       </c>
       <c r="V34" t="n">
-        <v>153.733180373459</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942092</v>
+        <v>164.4672642215701</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409217</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175981</v>
+        <v>104.851106744959</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252672</v>
+        <v>1.098310803922203</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>106.3740388304708</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415647</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443888</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627861</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915772</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892499</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131712</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788916</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906109</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351701</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252672</v>
+        <v>41.58521707215035</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.0908501643889</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.5642884866451</v>
+        <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589425</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822803</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812802</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>112.3339573144642</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.0589625183729</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415647</v>
+        <v>86.88909903415635</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443888</v>
+        <v>72.03622728443875</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627861</v>
+        <v>57.60994249627848</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915772</v>
+        <v>57.53638454915759</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892499</v>
+        <v>59.28583596892486</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131712</v>
+        <v>70.10467389131699</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788916</v>
+        <v>57.45692605788904</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906109</v>
+        <v>35.29664163906097</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351701</v>
+        <v>26.19514000351688</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702863</v>
+        <v>186.1175643702861</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779024</v>
+        <v>184.0302585779022</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1307.077250570986</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>913.9017490739166</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>913.9017490739166</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>913.9017490739166</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>593.9906109565709</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703881</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>401.4730945645006</v>
+        <v>242.2021271932834</v>
       </c>
       <c r="L2" t="n">
-        <v>894.7933862830295</v>
+        <v>735.5224189118122</v>
       </c>
       <c r="M2" t="n">
-        <v>894.7933862830295</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687141</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.50387457947</v>
+        <v>1676.728802799591</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710992</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078513</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637929</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1696.529855637929</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>1696.529855637929</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.529855637929</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1307.077250570986</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1307.077250570986</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163353</v>
+        <v>657.7430775364696</v>
       </c>
       <c r="C3" t="n">
-        <v>605.5673750163353</v>
+        <v>507.0888470965618</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>376.9998797180422</v>
       </c>
       <c r="E3" t="n">
-        <v>424.66703296953</v>
+        <v>240.5533888289299</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>116.1215827120617</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245263</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512721</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189926</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>1484.550466580652</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1484.550466580652</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580652</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.17183529705</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750005</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649874</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848782</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527424</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898491</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031778</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817893</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572966</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>510.8540365033694</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>510.8540365033694</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="D4" t="n">
-        <v>510.8540365033694</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="E4" t="n">
-        <v>355.2952243625719</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="F4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755448</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703881</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703881</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>741.1216772611406</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>510.8540365033694</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>510.8540365033694</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>510.8540365033694</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>510.8540365033694</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>510.8540365033694</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.8540365033694</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>906.5825048595891</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="C5" t="n">
-        <v>906.5825048595891</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="D5" t="n">
-        <v>906.5825048595891</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="E5" t="n">
-        <v>906.5825048595891</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="F5" t="n">
-        <v>489.6880663895669</v>
+        <v>538.3551089437426</v>
       </c>
       <c r="G5" t="n">
-        <v>180.827855444574</v>
+        <v>125.1923534317457</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703881</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>42.49073853703881</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>535.8110302555676</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="M5" t="n">
-        <v>1061.633919651423</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687141</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.50387457947</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710992</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137462</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078513</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1696.529855637929</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U5" t="n">
-        <v>1696.529855637929</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V5" t="n">
-        <v>1696.529855637929</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.529855637929</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="X5" t="n">
-        <v>1307.077250570986</v>
+        <v>951.7038890847576</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.077250570986</v>
+        <v>951.7038890847576</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622214</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223136</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437939</v>
       </c>
       <c r="E6" t="n">
-        <v>424.66703296953</v>
+        <v>318.8743002546817</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378135</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512721</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189926</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173059</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>968.0301839896712</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896712</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580652</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.17183529705</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.53692685194</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.53692685194</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.53692685194</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239.6802884867017</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>239.6802884867017</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>239.6802884867017</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>239.6802884867017</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>239.6802884867017</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>71.42623458614727</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>71.42623458614727</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703881</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>708.2187092468254</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>708.2187092468254</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>424.888307178003</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>424.888307178003</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>424.888307178003</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1375.198722157411</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>982.0232206603412</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.689431236809</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1375.198722157411</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.879055999857</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>882.0615091076409</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>596.6227173495417</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>330.643372170366</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5021,19 +5021,19 @@
         <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463914</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501239</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492708</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244623</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5075,7 +5075,7 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993114</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
         <v>2221.78706024859</v>
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979802</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5197,22 +5197,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362512</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469767</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
@@ -5224,7 +5224,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852098</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1598.67307041405</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1300.438250204169</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D14" t="n">
-        <v>1009.937802708025</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>702.2949591117579</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>380.341201928924</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2776.347440154748</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2776.347440154748</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2500.289086410224</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2205.777162630469</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.227134838258</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5413,22 +5413,22 @@
         <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,7 +5437,7 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757666</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
         <v>557.4621512791396</v>
@@ -5452,7 +5452,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5473,10 +5473,10 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
         <v>583.3517043592134</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,19 +5674,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5735,13 +5735,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5920,16 +5920,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5969,37 +5969,37 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,10 +6008,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838402</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1100.286794884791</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6254,19 +6254,19 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6406,7 +6406,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
         <v>1552.613322117754</v>
@@ -6418,16 +6418,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,19 +6491,19 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6552,10 +6552,10 @@
         <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1504.441740534771</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6619,10 +6619,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225742</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084637</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985472</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600044</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144923</v>
+        <v>890.2201666674339</v>
       </c>
       <c r="F32" t="n">
-        <v>612.045637042374</v>
+        <v>590.5275805474764</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855444</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267659</v>
+        <v>87.68547930209935</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>321.6829079322593</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>680.6652639597212</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1282.476063318636</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.476963363216</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2382.805063078648</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2822.844663970976</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3171.032156102498</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.877716243447</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152273</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491228</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448549</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281051</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382473</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748665</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079625</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.16845439813</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230764</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831686</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046489</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986685</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633125</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633125</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590204</v>
+        <v>341.6872565554789</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229136</v>
+        <v>288.6839909715329</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233325</v>
+        <v>250.2527302241124</v>
       </c>
       <c r="E34" t="n">
-        <v>239.922374880439</v>
+        <v>211.8957704333796</v>
       </c>
       <c r="F34" t="n">
-        <v>193.289744491316</v>
+        <v>171.7716879964173</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886655</v>
+        <v>120.7194864459276</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806354</v>
+        <v>82.44278775748629</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304546</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259937</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>229.0944335359356</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>393.2220734097353</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515916</v>
+        <v>613.674009554933</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792828008</v>
+        <v>810.7134513543735</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964895</v>
+        <v>1088.28775388438</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381859</v>
+        <v>1323.033455149257</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392296</v>
+        <v>1326.455651519308</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422777</v>
+        <v>1319.75651450195</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.25436700323</v>
+        <v>1234.142283034564</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569368</v>
+        <v>1115.625083552863</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209173</v>
+        <v>947.3881441448284</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279015</v>
+        <v>798.6106513157173</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569831</v>
+        <v>632.4821015969596</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378702</v>
+        <v>515.6036317300075</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524176</v>
+        <v>409.6934228967155</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,16 +7099,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7257,19 +7257,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1693.618740970509</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1397.884491463572</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1109.884614670373</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>804.742341777051</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>485.2891552971619</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G41" t="n">
-        <v>169.5676517752984</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411573</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857848</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781038</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1996.672234691773</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344868</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906092</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D43" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325927</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690451</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>68.23195016743819</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676789</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170081</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308015</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557622</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288785</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735655</v>
+        <v>563.347138735654</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.707880260105</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1557.973630753168</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>1269.973753959969</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>964.8314810666466</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>645.3782945867575</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6567910648938</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2747.822184147444</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2455.810831070634</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>2156.761373981368</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344868</v>
+        <v>475.5803720344859</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906092</v>
+        <v>402.8165060906084</v>
       </c>
       <c r="D46" t="n">
-        <v>344.624644983257</v>
+        <v>344.6246449832564</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325927</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252774</v>
+        <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690451</v>
+        <v>97.77230107690438</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676789</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>505.1989733022421</v>
+        <v>564.8145793170086</v>
       </c>
       <c r="M46" t="n">
-        <v>786.9927227160356</v>
+        <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822774</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1323.891465940012</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.26980279212</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033091</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557622</v>
+        <v>825.657018155761</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288785</v>
+        <v>689.0179479288773</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735655</v>
+        <v>563.347138735654</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.688734882099</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N2" t="n">
-        <v>408.3820139682002</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.3361259516819</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>341.761960553244</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.345144304512</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107123</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
-        <v>239.856222686995</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>101.5984667688728</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589657</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>212.9227975229111</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585531</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10200,13 +10200,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>342.4574509263905</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118432</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10674,7 +10674,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364594</v>
       </c>
       <c r="F11" t="n">
-        <v>318.679477164161</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>7.887024366937112e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385698</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414333</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>31.02253917081677</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213448</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>118.0013416284716</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822803</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812815</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995156</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531166</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.4869062682279</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812815</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995156</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>158.4882478966995</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>710101.0554185236</v>
+        <v>708897.960191003</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>710101.0554185236</v>
+        <v>708897.960191003</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678678.8258966085</v>
+        <v>678678.8258966084</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678678.8258966085</v>
+        <v>678678.8258966084</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681412.9636563471</v>
+        <v>681412.9636563472</v>
       </c>
     </row>
     <row r="16">
@@ -26317,37 +26317,37 @@
         <v>595096.1877080777</v>
       </c>
       <c r="D2" t="n">
-        <v>595096.1877080775</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="E2" t="n">
         <v>559271.2048546865</v>
       </c>
       <c r="F2" t="n">
-        <v>559271.2048546865</v>
+        <v>559271.2048546863</v>
       </c>
       <c r="G2" t="n">
+        <v>595096.1877080778</v>
+      </c>
+      <c r="H2" t="n">
         <v>595096.1877080777</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>595096.187708078</v>
+      </c>
+      <c r="J2" t="n">
+        <v>595096.1877080771</v>
+      </c>
+      <c r="K2" t="n">
+        <v>595096.1877080763</v>
+      </c>
+      <c r="L2" t="n">
         <v>595096.1877080776</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595096.1877080776</v>
-      </c>
-      <c r="J2" t="n">
-        <v>595096.187708077</v>
-      </c>
-      <c r="K2" t="n">
-        <v>595096.1877080764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>595096.1877080774</v>
       </c>
       <c r="M2" t="n">
         <v>595096.1877080777</v>
       </c>
       <c r="N2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="O2" t="n">
         <v>561709.7601539131</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343507</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602657</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301432</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469666</v>
+        <v>215329.5897923933</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670115</v>
+        <v>46725.80335481246</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436848</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015675</v>
+        <v>18983.55983015681</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="C4" t="n">
-        <v>213463.5449614853</v>
+        <v>218972.6240101879</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="F4" t="n">
-        <v>148856.2633404649</v>
+        <v>148856.2633404648</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26442,10 +26442,10 @@
         <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
-        <v>174211.0764483298</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173888.2217936687</v>
+        <v>173754.827184614</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26454,10 +26454,10 @@
         <v>173460.5839839468</v>
       </c>
       <c r="O4" t="n">
-        <v>150530.8792394561</v>
+        <v>150530.8792394562</v>
       </c>
       <c r="P4" t="n">
-        <v>150530.8792394561</v>
+        <v>150530.8792394562</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814949</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446766</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137716.784324092</v>
+        <v>142068.2301383868</v>
       </c>
       <c r="C6" t="n">
-        <v>315712.081458443</v>
+        <v>311717.2360149369</v>
       </c>
       <c r="D6" t="n">
-        <v>306656.6739869647</v>
+        <v>298920.3847635731</v>
       </c>
       <c r="E6" t="n">
-        <v>224849.7208676003</v>
+        <v>224741.1603134993</v>
       </c>
       <c r="F6" t="n">
-        <v>355302.6520053126</v>
+        <v>355194.0914512112</v>
       </c>
       <c r="G6" t="n">
-        <v>334370.878535597</v>
+        <v>334370.8785355971</v>
       </c>
       <c r="H6" t="n">
-        <v>363465.8344086112</v>
+        <v>363465.8344086113</v>
       </c>
       <c r="I6" t="n">
-        <v>363465.8344086112</v>
+        <v>363465.8344086115</v>
       </c>
       <c r="J6" t="n">
-        <v>135380.1910588611</v>
+        <v>141896.4762134345</v>
       </c>
       <c r="K6" t="n">
-        <v>357226.0660058271</v>
+        <v>357226.0660058269</v>
       </c>
       <c r="L6" t="n">
-        <v>318331.7190732398</v>
+        <v>314282.8818627677</v>
       </c>
       <c r="M6" t="n">
-        <v>320734.5574742428</v>
+        <v>319682.8624630545</v>
       </c>
       <c r="N6" t="n">
-        <v>363465.8344086111</v>
+        <v>363465.8344086113</v>
       </c>
       <c r="O6" t="n">
-        <v>336874.9133017494</v>
+        <v>336773.7423091609</v>
       </c>
       <c r="P6" t="n">
-        <v>355858.4731319062</v>
+        <v>355757.3021393177</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880682</v>
+        <v>831.8776843078615</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087643</v>
+        <v>58.40725419351557</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165939</v>
+        <v>14.33013548902032</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769594</v>
+        <v>23.72944978769601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559192</v>
+        <v>646.8007142757124</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455248</v>
+        <v>129.6883820257316</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.3686948412679</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>96.01346734914978</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857377</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.77876505861843</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.99219550354918</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>5.396896963254761</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>103.2595191213339</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.995132671382</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026243</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408099</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>103.1173400206755</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>277.9801914844883</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>5.636002634529035</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
       <c r="P19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>5.636002634529035</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,16 +29296,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431646</v>
@@ -29314,10 +29314,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29533,13 +29533,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29691,13 +29691,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M31" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.78466270501974</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>103.2865954513717</v>
       </c>
       <c r="R32" t="n">
-        <v>109.586371353925</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
-        <v>109.586371353925</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>58.99686212484067</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.98970481639526</v>
       </c>
       <c r="O34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.586371353925</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.586371353925</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>5.636002634528353</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.636002634529149</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023179</v>
+        <v>36.24905561692943</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P43" t="n">
-        <v>36.24905561693288</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="L46" t="n">
-        <v>36.24905561693276</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023179</v>
+        <v>36.24905561692941</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023179</v>
+        <v>96.46683947023192</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286164</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N2" t="n">
-        <v>259.2635226304162</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>530.94900390237</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>249.0744016643551</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740204</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129851</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N5" t="n">
-        <v>90.73773134921086</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>9.211344719560863</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700768</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>63.35896009881473</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,13 +36051,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,10 +36610,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36920,13 +36920,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>249.7698920375016</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215727</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>255.697253080014</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221359</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9273734499309</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>289.9992824624309</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576765</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176593</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>247.1701735776326</v>
+        <v>304.203145279356</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>199.0297391913541</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910039</v>
+        <v>280.3780833636429</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918832</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640775</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37394,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565483</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807271</v>
+        <v>6.174568144770362</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P43" t="n">
-        <v>157.336091754891</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038427</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807271</v>
+        <v>66.39235199807285</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570417</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>202.0345504389527</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230237</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918882</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073106</v>
+        <v>260.8150890073108</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.92360348038427</v>
+        <v>99.9236034803844</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
